--- a/8DIO/8W Silver Edition/SpreadSheets/8W Silver Edition.xlsx
+++ b/8DIO/8W Silver Edition/SpreadSheets/8W Silver Edition.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D068AD-EDD2-4A4C-8B99-A582CB1366B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469CF272-8F50-4CB0-A29E-D0C8A36BACE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1455" windowWidth="22575" windowHeight="13740" tabRatio="500" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1665" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 Strings 01 Shorts" sheetId="1" r:id="rId1"/>
@@ -3824,10 +3824,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3835,10 +3835,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -5714,7 +5717,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5722,10 +5725,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -7587,7 +7593,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -7595,10 +7601,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -9460,7 +9469,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -9468,10 +9477,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -11330,10 +11342,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E87D18-D27E-446A-AC47-5D1B61EC4DEB}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -11341,10 +11353,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -17443,7 +17458,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -17451,10 +17466,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -19341,7 +19359,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -19349,10 +19367,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -21247,10 +21268,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -23113,7 +23137,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -23121,10 +23145,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -24998,7 +25025,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -25006,10 +25033,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -26895,7 +26925,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -26903,10 +26933,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -28756,7 +28789,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -28764,10 +28797,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -30617,7 +30653,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -30625,10 +30661,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
